--- a/美国大学信息/2015_CS_录取.xlsx
+++ b/美国大学信息/2015_CS_录取.xlsx
@@ -29378,8 +29378,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:A370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="A331" sqref="A331"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/美国大学信息/2015_CS_录取.xlsx
+++ b/美国大学信息/2015_CS_录取.xlsx
@@ -16906,283 +16906,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>: CMU[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>南慕伦</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>sunlei_1993</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>luang008</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>筱瞳</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>gc1993114</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Lorreina</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>lyzstc</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>]; WISC[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>zrw93</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>AspirinSJL</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>sunlei_1993</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>]; UWM[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>miss_snow</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF497B89"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>yummy1221</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>]; </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MS AD</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>无奖</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF555555"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>: UCSD[</t>
     </r>
     <r>
@@ -28881,6 +28604,287 @@
         <family val="1"/>
       </rPr>
       <t>. from: 1point3acres.com/bbs </t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>MS AD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无奖</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: CMU[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南慕伦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sunlei_1993</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>luang008</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>筱瞳</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gc1993114</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lorreina</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lyzstc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]; WISC[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zrw93</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AspirinSJL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sunlei_1993</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]; UWM[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>miss_snow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF497B89"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>yummy1221</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>]; </t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -29379,7 +29383,7 @@
   <dimension ref="A2:A370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+      <selection activeCell="A373" sqref="A373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29400,7 +29404,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29473,7 +29477,7 @@
     </row>
     <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -29537,7 +29541,7 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29547,7 +29551,7 @@
     </row>
     <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -29567,7 +29571,7 @@
     </row>
     <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -29677,7 +29681,7 @@
     </row>
     <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -29708,7 +29712,7 @@
     </row>
     <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -29718,7 +29722,7 @@
     </row>
     <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29749,12 +29753,12 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>198</v>
+        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29775,7 +29779,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -29812,7 +29816,7 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="101" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29838,7 +29842,7 @@
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29848,7 +29852,7 @@
     </row>
     <row r="108" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -29859,12 +29863,12 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -29880,7 +29884,7 @@
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="117" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29906,7 +29910,7 @@
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29936,7 +29940,7 @@
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -29952,7 +29956,7 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="133" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -29962,7 +29966,7 @@
     </row>
     <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -29978,7 +29982,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30004,7 +30008,7 @@
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="145" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30040,12 +30044,12 @@
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30076,7 +30080,7 @@
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="161" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30086,7 +30090,7 @@
     </row>
     <row r="162" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="163" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30127,7 +30131,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30148,7 +30152,7 @@
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="177" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30169,7 +30173,7 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30190,7 +30194,7 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30230,7 +30234,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="195" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30251,7 +30255,7 @@
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30261,7 +30265,7 @@
     </row>
     <row r="201" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="202" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -30277,7 +30281,7 @@
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -30288,7 +30292,7 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30324,7 +30328,7 @@
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30345,7 +30349,7 @@
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="222" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30366,7 +30370,7 @@
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="227" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30403,7 +30407,7 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="236" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30413,7 +30417,7 @@
     </row>
     <row r="237" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30444,7 +30448,7 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="245" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30475,7 +30479,7 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="252" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30485,7 +30489,7 @@
     </row>
     <row r="253" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="254" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30521,7 +30525,7 @@
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="262" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30547,7 +30551,7 @@
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="268" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30568,7 +30572,7 @@
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="273" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30589,7 +30593,7 @@
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="278" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30625,7 +30629,7 @@
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="286" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30651,7 +30655,7 @@
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="292" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15"/>
@@ -30662,7 +30666,7 @@
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="295" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30702,7 +30706,7 @@
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="303" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30744,7 +30748,7 @@
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="313" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30765,7 +30769,7 @@
     </row>
     <row r="317" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="318" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30775,7 +30779,7 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="320" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30801,7 +30805,7 @@
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="326" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30827,12 +30831,12 @@
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="332" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="333" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30842,7 +30846,7 @@
     </row>
     <row r="334" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="335" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30888,7 +30892,7 @@
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="345" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30909,7 +30913,7 @@
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="350" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30935,7 +30939,7 @@
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="356" spans="1:1" customFormat="1" ht="13.5" hidden="1" x14ac:dyDescent="0.15">
@@ -30956,7 +30960,7 @@
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="361" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -30972,7 +30976,7 @@
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="365" spans="1:1" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.2">
@@ -31105,5 +31109,6 @@
     <hyperlink ref="A367" r:id="rId92" display="http://www.1point3acres.com/bbs/thread-126069-1-1.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId93"/>
 </worksheet>
 </file>